--- a/ExperimentBVHTree/benchmark.xlsx
+++ b/ExperimentBVHTree/benchmark.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\DAE\S5\GraduationWork\ExperimentBVHTree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FB3231-D9F5-4B67-A769-DC3F81595EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC73C0C2-EE77-4B00-80A1-8C27F2EB2C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{0CEBFCCB-68C8-4966-8C89-C5E25A10E436}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{0CEBFCCB-68C8-4966-8C89-C5E25A10E436}"/>
   </bookViews>
   <sheets>
     <sheet name="benchmark" sheetId="1" r:id="rId1"/>
-    <sheet name="Simple" sheetId="2" r:id="rId2"/>
+    <sheet name="Low" sheetId="2" r:id="rId2"/>
     <sheet name="Medium" sheetId="3" r:id="rId3"/>
     <sheet name="High" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -716,7 +716,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Simple!$B$2</c:f>
+              <c:f>Low!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -739,7 +739,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Simple!$T$2:$ACP$2</c:f>
+              <c:f>Low!$T$2:$ACP$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="751"/>
@@ -1790,7 +1790,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Simple!$B$5</c:f>
+              <c:f>Low!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1813,7 +1813,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Simple!$T$5:$ACP$5</c:f>
+              <c:f>Low!$T$5:$ACP$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="751"/>
@@ -2996,7 +2996,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Simple!$B$3</c:f>
+              <c:f>Low!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3019,7 +3019,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Simple!$T$3:$ACP$3</c:f>
+              <c:f>Low!$T$3:$ACP$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="751"/>
@@ -4394,7 +4394,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Simple!$B$6</c:f>
+              <c:f>Low!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4417,7 +4417,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Simple!$T$6:$ACP$6</c:f>
+              <c:f>Low!$T$6:$ACP$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="751"/>
@@ -6689,7 +6689,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Simple!$B$4</c:f>
+              <c:f>Low!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6712,7 +6712,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Simple!$T$4:$ACP$4</c:f>
+              <c:f>Low!$T$4:$ACP$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="751"/>
@@ -7928,7 +7928,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Simple!$B$7</c:f>
+              <c:f>Low!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7951,7 +7951,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Simple!$T$7:$ACP$7</c:f>
+              <c:f>Low!$T$7:$ACP$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="751"/>
@@ -10284,7 +10284,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Simple!$C$8</c:f>
+              <c:f>Low!$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10305,7 +10305,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Simple!$L$1,Simple!$P$1)</c:f>
+              <c:f>(Low!$L$1,Low!$P$1)</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -10319,7 +10319,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Simple!$L$2,Simple!$P$2)</c:f>
+              <c:f>(Low!$L$2,Low!$P$2)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -10343,7 +10343,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Simple!$C$9</c:f>
+              <c:f>Low!$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10364,7 +10364,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Simple!$L$1,Simple!$P$1)</c:f>
+              <c:f>(Low!$L$1,Low!$P$1)</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -10378,7 +10378,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Simple!$L$5,Simple!$P$5)</c:f>
+              <c:f>(Low!$L$5,Low!$P$5)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -10686,7 +10686,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Simple!$L$1</c:f>
+              <c:f>Low!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10707,7 +10707,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Simple!$B$2:$B$7</c:f>
+              <c:f>Low!$B$2:$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -10733,7 +10733,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Simple!$M$2:$M$7</c:f>
+              <c:f>Low!$M$2:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -10769,7 +10769,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Simple!$P$1</c:f>
+              <c:f>Low!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10790,7 +10790,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Simple!$B$2:$B$7</c:f>
+              <c:f>Low!$B$2:$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -10816,7 +10816,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Simple!$Q$2:$Q$7</c:f>
+              <c:f>Low!$Q$2:$Q$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11144,7 +11144,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Simple!$L$1</c:f>
+              <c:f>Low!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11165,7 +11165,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Simple!$B$2:$B$7</c:f>
+              <c:f>Low!$B$2:$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -11191,7 +11191,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Simple!$O$2:$O$7</c:f>
+              <c:f>Low!$O$2:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11227,7 +11227,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Simple!$P$1</c:f>
+              <c:f>Low!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11248,7 +11248,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Simple!$B$2:$B$7</c:f>
+              <c:f>Low!$B$2:$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -11274,7 +11274,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Simple!$S$2:$S$7</c:f>
+              <c:f>Low!$S$2:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -36637,8 +36637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86ED5B75-F130-40D3-BB44-16F0F9BB8EDF}">
   <dimension ref="A1:ACP9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -49657,8 +49657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64EFFA7-F076-482D-B2F7-DF0E3FA6935F}">
   <dimension ref="A1:IQ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView zoomScale="123" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
